--- a/biology/Microbiologie/Eleftheria_terrae/Eleftheria_terrae.xlsx
+++ b/biology/Microbiologie/Eleftheria_terrae/Eleftheria_terrae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Eleftheria terrae (en abrégé E. terrae) est le nom provisoire d'une bactérie à Gram négatif découverte en 2014[1]. Elle a la particularité d'avoir été mise en culture dans son biotope grâce à la mise au point d'un dispositif spécialement adapté à cet effet, l'isolation chip.
-E. terrae est remarquable pour sa production de teixobactine, un antibiotique qui semble être efficace contre les bactéries pathogènes à Gram positif qui ont développé une résistance aux antibiotiques existants[1].
+Eleftheria terrae (en abrégé E. terrae) est le nom provisoire d'une bactérie à Gram négatif découverte en 2014. Elle a la particularité d'avoir été mise en culture dans son biotope grâce à la mise au point d'un dispositif spécialement adapté à cet effet, l'isolation chip.
+E. terrae est remarquable pour sa production de teixobactine, un antibiotique qui semble être efficace contre les bactéries pathogènes à Gram positif qui ont développé une résistance aux antibiotiques existants.
 </t>
         </is>
       </c>
